--- a/ZETA.xlsx
+++ b/ZETA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F53023-614C-4E86-BF03-E0317476895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B13610F-800A-4CC5-8687-9E3265940A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25560" yWindow="915" windowWidth="25080" windowHeight="18540" activeTab="1" xr2:uid="{0DB73A73-2E5B-4C79-A48B-500A9B90B230}"/>
+    <workbookView xWindow="56060" yWindow="1890" windowWidth="20820" windowHeight="13240" xr2:uid="{0DB73A73-2E5B-4C79-A48B-500A9B90B230}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FEBB1815-6691-427A-AF55-33A092C8B236}</author>
+    <author>tc={9B4089C3-55B2-4B50-97DD-EDE7C128E8A8}</author>
+  </authors>
+  <commentList>
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{FEBB1815-6691-427A-AF55-33A092C8B236}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q225: 327-329m guidance</t>
+      </text>
+    </comment>
+    <comment ref="Z3" authorId="1" shapeId="0" xr:uid="{9B4089C3-55B2-4B50-97DD-EDE7C128E8A8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q225: 1258-1268m guidance</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Price</t>
   </si>
@@ -148,6 +175,45 @@
   </si>
   <si>
     <t>FCF</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
   </si>
 </sst>
 </file>
@@ -157,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -169,6 +235,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -192,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -215,6 +287,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -240,16 +315,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83081</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>26276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83081</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>124247</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -264,8 +339,58 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8267700" y="0"/>
-          <a:ext cx="0" cy="6629400"/>
+          <a:off x="9375978" y="26276"/>
+          <a:ext cx="0" cy="8304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>43793</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>56931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>43793</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140138</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A025B7-A35D-5D46-1EC1-56F8DA76A408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16032655" y="56931"/>
+          <a:ext cx="0" cy="4348655"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -289,6 +414,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{FDD91762-5189-4DEB-B46B-6197602114E3}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,25 +737,34 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q3" dT="2025-09-18T15:28:27.39" personId="{FDD91762-5189-4DEB-B46B-6197602114E3}" id="{FEBB1815-6691-427A-AF55-33A092C8B236}">
+    <text>Q225: 327-329m guidance</text>
+  </threadedComment>
+  <threadedComment ref="Z3" dT="2025-09-18T15:28:48.38" personId="{FDD91762-5189-4DEB-B46B-6197602114E3}" id="{9B4089C3-55B2-4B50-97DD-EDE7C128E8A8}">
+    <text>Q225: 1258-1268m guidance</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56FBF50-5CE8-4AE6-BD50-BD2C7FD5D952}">
   <dimension ref="N2:P7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="14:16" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
         <v>1</v>
       </c>
@@ -636,16 +776,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="2">
         <f>+O2*O3</f>
-        <v>4274.063298</v>
-      </c>
-    </row>
-    <row r="5" spans="14:16" x14ac:dyDescent="0.2">
+        <v>4986.4071810000005</v>
+      </c>
+    </row>
+    <row r="5" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
         <v>3</v>
       </c>
@@ -656,7 +796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N6" t="s">
         <v>4</v>
       </c>
@@ -667,13 +807,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="2">
         <f>+O4-O5+O6</f>
-        <v>4051.614298</v>
+        <v>4763.958181</v>
       </c>
     </row>
   </sheetData>
@@ -682,29 +822,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A448B020-6E7A-48AC-B718-8A48DEB2DF34}">
-  <dimension ref="A1:AA25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A448B020-6E7A-48AC-B718-8A48DEB2DF34}">
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomRight" activeCell="P34" sqref="O34:P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="3"/>
+    <col min="15" max="18" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -741,51 +882,63 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2">
+      <c r="O2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2">
         <v>2020</v>
       </c>
-      <c r="R2">
-        <f>+Q2+1</f>
+      <c r="V2">
+        <f t="shared" ref="V2:AE2" si="0">+U2+1</f>
         <v>2021</v>
       </c>
-      <c r="S2">
-        <f>+R2+1</f>
+      <c r="W2">
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="T2">
-        <f>+S2+1</f>
+      <c r="X2">
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="U2">
-        <f>+T2+1</f>
+      <c r="Y2">
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="V2">
-        <f>+U2+1</f>
+      <c r="Z2">
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="W2">
-        <f>+V2+1</f>
+      <c r="AA2">
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="X2">
-        <f>+W2+1</f>
+      <c r="AB2">
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Y2">
-        <f>+X2+1</f>
+      <c r="AC2">
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="Z2">
-        <f>+Y2+1</f>
+      <c r="AD2">
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
+      <c r="AE2">
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -816,25 +969,42 @@
         <v>268.29500000000002</v>
       </c>
       <c r="N3" s="9">
-        <f>+J3*1.4</f>
-        <v>294.44799999999987</v>
-      </c>
-      <c r="R3" s="8">
+        <f>+Y3-M3-L3-K3</f>
+        <v>314.67300000000006</v>
+      </c>
+      <c r="O3" s="9">
+        <v>264.41899999999998</v>
+      </c>
+      <c r="P3" s="9">
+        <v>308.44200000000001</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>+M3*1.3</f>
+        <v>348.78350000000006</v>
+      </c>
+      <c r="R3" s="9">
+        <f>+N3*1.3</f>
+        <v>409.07490000000007</v>
+      </c>
+      <c r="V3" s="8">
         <v>458.83800000000002</v>
       </c>
-      <c r="S3" s="8">
+      <c r="W3" s="8">
         <v>590.96100000000001</v>
       </c>
-      <c r="T3" s="8">
-        <f>SUM(H3:K3)</f>
-        <v>766.06799999999998</v>
-      </c>
-      <c r="U3" s="8">
-        <f>SUM(K3:N3)</f>
-        <v>985.52899999999988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X3" s="8">
+        <f>SUM(G3:J3)</f>
+        <v>728.72299999999996</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>1005.754</v>
+      </c>
+      <c r="Z3" s="8">
+        <f>SUM(O3:R3)</f>
+        <v>1330.7194000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
@@ -864,19 +1034,37 @@
       <c r="M4" s="5">
         <v>105.652</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="R4" s="4">
+      <c r="N4" s="12">
+        <f>+Y4-M4-L4-K4</f>
+        <v>125.94500000000004</v>
+      </c>
+      <c r="O4" s="5">
+        <v>104.488</v>
+      </c>
+      <c r="P4" s="5">
+        <v>116.988</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="V4" s="4">
         <v>174.72</v>
       </c>
-      <c r="S4" s="4">
+      <c r="W4" s="4">
         <v>215.46600000000001</v>
       </c>
-      <c r="T4" s="4">
+      <c r="X4" s="4">
         <f>SUM(G4:J4)</f>
         <v>274.48200000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y4" s="4">
+        <v>399.55200000000002</v>
+      </c>
+      <c r="Z4" s="4">
+        <f>+Z3-Z5</f>
+        <v>532.28776000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
@@ -885,48 +1073,69 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
-        <f>+G3-G4</f>
+        <f t="shared" ref="G5:M5" si="1">+G3-G4</f>
         <v>103.25200000000001</v>
       </c>
       <c r="H5" s="5">
-        <f>+H3-H4</f>
+        <f t="shared" si="1"/>
         <v>109.78</v>
       </c>
       <c r="I5" s="5">
-        <f>+I3-I4</f>
+        <f t="shared" si="1"/>
         <v>115.504</v>
       </c>
       <c r="J5" s="5">
-        <f>+J3-J4</f>
+        <f t="shared" si="1"/>
         <v>125.7049999999999</v>
       </c>
       <c r="K5" s="5">
-        <f>+K3-K4</f>
+        <f t="shared" si="1"/>
         <v>118.074</v>
       </c>
       <c r="L5" s="5">
-        <f>+L3-L4</f>
+        <f t="shared" si="1"/>
         <v>136.75700000000001</v>
       </c>
       <c r="M5" s="5">
-        <f>+M3-M4</f>
+        <f t="shared" si="1"/>
         <v>162.64300000000003</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="R5" s="4">
-        <f>+R3-R4</f>
+      <c r="N5" s="5">
+        <f>+N3-N4</f>
+        <v>188.72800000000001</v>
+      </c>
+      <c r="O5" s="5">
+        <f>+O3-O4</f>
+        <v>159.93099999999998</v>
+      </c>
+      <c r="P5" s="5">
+        <f>+P3-P4</f>
+        <v>191.45400000000001</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="V5" s="4">
+        <f>+V3-V4</f>
         <v>284.11800000000005</v>
       </c>
-      <c r="S5" s="4">
-        <f>+S3-S4</f>
+      <c r="W5" s="4">
+        <f>+W3-W4</f>
         <v>375.495</v>
       </c>
-      <c r="T5" s="4">
-        <f>+T3-T4</f>
-        <v>491.58599999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X5" s="4">
+        <f>+X3-X4</f>
+        <v>454.24099999999993</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>+Y3-Y4</f>
+        <v>606.202</v>
+      </c>
+      <c r="Z5" s="4">
+        <f>+Z3*0.6</f>
+        <v>798.43164000000013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -944,8 +1153,8 @@
         <v>50.706000000000003</v>
       </c>
       <c r="J6" s="5">
-        <f>205.419-I6-H6</f>
-        <v>103.99800000000002</v>
+        <f>205.419-I6-H6-G6</f>
+        <v>51.39700000000002</v>
       </c>
       <c r="K6" s="5">
         <v>48.805999999999997</v>
@@ -956,19 +1165,37 @@
       <c r="M6" s="5">
         <v>50.494</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="R6" s="4">
+      <c r="N6" s="12">
+        <f t="shared" ref="N6:N8" si="2">+Y6-M6-L6-K6</f>
+        <v>54.13600000000001</v>
+      </c>
+      <c r="O6" s="5">
+        <v>54.036999999999999</v>
+      </c>
+      <c r="P6" s="5">
+        <v>62.171999999999997</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="V6" s="4">
         <v>189.60599999999999</v>
       </c>
-      <c r="S6" s="4">
+      <c r="W6" s="4">
         <v>213.61500000000001</v>
       </c>
-      <c r="T6" s="4">
-        <f t="shared" ref="T6:T8" si="0">SUM(G6:J6)</f>
-        <v>258.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X6" s="4">
+        <f t="shared" ref="X6:X8" si="3">SUM(G6:J6)</f>
+        <v>205.41900000000001</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>204.595</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>Y6*1.2</f>
+        <v>245.51399999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -998,19 +1225,37 @@
       <c r="M7" s="5">
         <v>84.548000000000002</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="R7" s="4">
+      <c r="N7" s="12">
+        <f t="shared" si="2"/>
+        <v>82.947000000000017</v>
+      </c>
+      <c r="O7" s="5">
+        <v>75.369</v>
+      </c>
+      <c r="P7" s="5">
+        <v>86.391999999999996</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="V7" s="4">
         <v>229.34299999999999</v>
       </c>
-      <c r="S7" s="4">
+      <c r="W7" s="4">
         <v>299.238</v>
       </c>
-      <c r="T7" s="4">
-        <f t="shared" si="0"/>
+      <c r="X7" s="4">
+        <f t="shared" si="3"/>
         <v>288.44100000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y7" s="4">
+        <v>314.51400000000001</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>Y7*1.2</f>
+        <v>377.41680000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1040,19 +1285,37 @@
       <c r="M8" s="5">
         <v>22.806999999999999</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="R8" s="4">
+      <c r="N8" s="12">
+        <f t="shared" si="2"/>
+        <v>24.271999999999995</v>
+      </c>
+      <c r="O8" s="5">
+        <v>26.798999999999999</v>
+      </c>
+      <c r="P8" s="5">
+        <v>30.591999999999999</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="V8" s="4">
         <v>64.474000000000004</v>
       </c>
-      <c r="S8" s="4">
+      <c r="W8" s="4">
         <v>69.453999999999994</v>
       </c>
-      <c r="T8" s="4">
-        <f t="shared" si="0"/>
+      <c r="X8" s="4">
+        <f t="shared" si="3"/>
         <v>73.869</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y8" s="4">
+        <v>90.679000000000002</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>Y8*1.2</f>
+        <v>108.81480000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1061,20 +1324,20 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:L9" si="1">SUM(G6:G8)</f>
+        <f t="shared" ref="G9:J9" si="4">SUM(G6:G8)</f>
         <v>143.66900000000001</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>140.554</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>139.43700000000001</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="1"/>
-        <v>196.67000000000002</v>
+        <f t="shared" si="4"/>
+        <v>144.06900000000002</v>
       </c>
       <c r="K9" s="5">
         <f>SUM(K6:K8)</f>
@@ -1088,21 +1351,42 @@
         <f>SUM(M6:M8)</f>
         <v>157.84899999999999</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="R9" s="5">
-        <f>SUM(R6:R8)</f>
+      <c r="N9" s="5">
+        <f>SUM(N6:N8)</f>
+        <v>161.35500000000002</v>
+      </c>
+      <c r="O9" s="5">
+        <f>SUM(O6:O8)</f>
+        <v>156.20500000000001</v>
+      </c>
+      <c r="P9" s="5">
+        <f>SUM(P6:P8)</f>
+        <v>179.15600000000001</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="V9" s="5">
+        <f>SUM(V6:V8)</f>
         <v>483.42299999999994</v>
       </c>
-      <c r="S9" s="5">
-        <f>SUM(S6:S8)</f>
+      <c r="W9" s="5">
+        <f>SUM(W6:W8)</f>
         <v>582.30700000000002</v>
       </c>
-      <c r="T9" s="5">
-        <f>SUM(T6:T8)</f>
-        <v>620.33000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X9" s="5">
+        <f>SUM(X6:X8)</f>
+        <v>567.72900000000004</v>
+      </c>
+      <c r="Y9" s="5">
+        <f>SUM(Y6:Y8)</f>
+        <v>609.78800000000001</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" ref="Z9" si="5">SUM(Z6:Z8)</f>
+        <v>731.74559999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1111,20 +1395,20 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
-        <f t="shared" ref="G10:L10" si="2">G5-G9</f>
+        <f t="shared" ref="G10:J10" si="6">G5-G9</f>
         <v>-40.417000000000002</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-30.774000000000001</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-23.933000000000007</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="2"/>
-        <v>-70.965000000000117</v>
+        <f t="shared" si="6"/>
+        <v>-18.364000000000118</v>
       </c>
       <c r="K10" s="5">
         <f>K5-K9</f>
@@ -1138,21 +1422,42 @@
         <f>M5-M9</f>
         <v>4.7940000000000396</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="R10" s="5">
-        <f>R5-R9</f>
+      <c r="N10" s="5">
+        <f>N5-N9</f>
+        <v>27.37299999999999</v>
+      </c>
+      <c r="O10" s="5">
+        <f>O5-O9</f>
+        <v>3.7259999999999707</v>
+      </c>
+      <c r="P10" s="5">
+        <f>P5-P9</f>
+        <v>12.298000000000002</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="V10" s="5">
+        <f>V5-V9</f>
         <v>-199.30499999999989</v>
       </c>
-      <c r="S10" s="5">
-        <f>S5-S9</f>
+      <c r="W10" s="5">
+        <f>W5-W9</f>
         <v>-206.81200000000001</v>
       </c>
-      <c r="T10" s="5">
-        <f>T5-T9</f>
-        <v>-128.74400000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X10" s="5">
+        <f>X5-X9</f>
+        <v>-113.48800000000011</v>
+      </c>
+      <c r="Y10" s="5">
+        <f>Y5-Y9</f>
+        <v>-3.5860000000000127</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" ref="Z10" si="7">Z5-Z9</f>
+        <v>66.686040000000162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
@@ -1188,21 +1493,38 @@
         <f>-1.945-2.851</f>
         <v>-4.7960000000000003</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="R11" s="4">
+      <c r="N11" s="12">
+        <f t="shared" ref="N11:N13" si="8">+Y11-M11-L11-K11</f>
+        <v>1.9410000000000003</v>
+      </c>
+      <c r="O11" s="5">
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="P11" s="5">
+        <v>-0.16600000000000001</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="V11" s="4">
         <f>-7.033+0.279</f>
         <v>-6.7540000000000004</v>
       </c>
-      <c r="S11" s="4">
+      <c r="W11" s="4">
         <f>-7.303-13.983</f>
         <v>-21.286000000000001</v>
       </c>
-      <c r="T11" s="4">
-        <f t="shared" ref="T11:T13" si="3">SUM(G11:J11)</f>
+      <c r="X11" s="4">
+        <f t="shared" ref="X11:X13" si="9">SUM(G11:J11)</f>
         <v>-18.759</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y11" s="4">
+        <v>-7.1470000000000002</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1211,20 +1533,20 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
-        <f t="shared" ref="G12:L12" si="4">+G10+G11</f>
+        <f t="shared" ref="G12:J12" si="10">+G10+G11</f>
         <v>-44.728999999999999</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-36.408999999999999</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-29.263000000000005</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="4"/>
-        <v>-74.447000000000116</v>
+        <f t="shared" si="10"/>
+        <v>-21.846000000000117</v>
       </c>
       <c r="K12" s="5">
         <f>+K10+K11</f>
@@ -1238,21 +1560,42 @@
         <f>+M10+M11</f>
         <v>-1.9999999999606999E-3</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="R12" s="5">
-        <f>+R10+R11</f>
+      <c r="N12" s="5">
+        <f>+N10+N11</f>
+        <v>29.313999999999989</v>
+      </c>
+      <c r="O12" s="5">
+        <f>+O10+O11</f>
+        <v>3.3949999999999707</v>
+      </c>
+      <c r="P12" s="5">
+        <f>+P10+P11</f>
+        <v>12.132000000000001</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="V12" s="5">
+        <f>+V10+V11</f>
         <v>-206.05899999999988</v>
       </c>
-      <c r="S12" s="5">
-        <f>+S10+S11</f>
+      <c r="W12" s="5">
+        <f>+W10+W11</f>
         <v>-228.09800000000001</v>
       </c>
-      <c r="T12" s="5">
-        <f>+T10+T11</f>
-        <v>-147.5030000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X12" s="5">
+        <f>+X10+X11</f>
+        <v>-132.24700000000013</v>
+      </c>
+      <c r="Y12" s="5">
+        <f>+Y10+Y11</f>
+        <v>-10.733000000000013</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" ref="Z12" si="11">+Z10+Z11</f>
+        <v>66.686040000000162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1282,37 +1625,54 @@
       <c r="M13" s="5">
         <v>0.2</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="R13" s="4">
+      <c r="N13" s="12">
+        <f t="shared" si="8"/>
+        <v>-1.0819999999999999</v>
+      </c>
+      <c r="O13" s="5">
         <v>0</v>
       </c>
-      <c r="S13" s="4">
+      <c r="P13" s="5">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="V13" s="4">
         <v>0</v>
       </c>
-      <c r="T13" s="4">
-        <f t="shared" si="3"/>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="9"/>
         <v>1.0369999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" ref="G14:L14" si="5">+G12-G13</f>
+        <f t="shared" ref="G14:J14" si="12">+G12-G13</f>
         <v>-44.927</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-36.717999999999996</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-29.853000000000005</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="5"/>
-        <v>-74.387000000000114</v>
+        <f t="shared" si="12"/>
+        <v>-21.786000000000119</v>
       </c>
       <c r="K14" s="5">
         <f>+K12-K13</f>
@@ -1326,65 +1686,105 @@
         <f>+M12-M13</f>
         <v>-0.20199999999996071</v>
       </c>
-      <c r="R14" s="5">
-        <f>+R12-R13</f>
+      <c r="N14" s="5">
+        <f>+N12-N13</f>
+        <v>30.39599999999999</v>
+      </c>
+      <c r="O14" s="5">
+        <f>+O12-O13</f>
+        <v>3.3949999999999707</v>
+      </c>
+      <c r="P14" s="5">
+        <f>+P12-P13</f>
+        <v>10.940000000000001</v>
+      </c>
+      <c r="V14" s="5">
+        <f>+V12-V13</f>
         <v>-206.05899999999988</v>
       </c>
-      <c r="S14" s="5">
-        <f>+S12-S13</f>
+      <c r="W14" s="5">
+        <f>+W12-W13</f>
         <v>-228.09800000000001</v>
       </c>
-      <c r="T14" s="5">
-        <f>+T12-T13</f>
-        <v>-148.54000000000011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="X14" s="5">
+        <f>+X12-X13</f>
+        <v>-133.28400000000013</v>
+      </c>
+      <c r="Y14" s="5">
+        <f>+Y12-Y13</f>
+        <v>-10.733000000000013</v>
+      </c>
+      <c r="Z14" s="5">
+        <f t="shared" ref="Z14" si="13">+Z12-Z13</f>
+        <v>66.686040000000162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="7">
-        <f>+G14/G16</f>
+        <f t="shared" ref="G15:P15" si="14">+G14/G16</f>
         <v>-0.29942183002207856</v>
       </c>
       <c r="H15" s="7">
-        <f>+H14/H16</f>
+        <f t="shared" si="14"/>
         <v>-0.23750706560557319</v>
       </c>
       <c r="I15" s="7">
-        <f>+I14/I16</f>
+        <f t="shared" si="14"/>
         <v>-0.18887634669300221</v>
       </c>
       <c r="J15" s="7">
-        <f>+J14/J16</f>
-        <v>-0.47063761770851753</v>
+        <f t="shared" si="14"/>
+        <v>-0.13783740625912866</v>
       </c>
       <c r="K15" s="7">
-        <f>+K14/K16</f>
+        <f t="shared" si="14"/>
         <v>-0.15081669973080691</v>
       </c>
       <c r="L15" s="7">
-        <f>+L14/L16</f>
+        <f t="shared" si="14"/>
         <v>-8.4904592076837523E-2</v>
       </c>
       <c r="M15" s="7">
-        <f>+M14/M16</f>
+        <f t="shared" si="14"/>
         <v>-1.0750105708927228E-3</v>
       </c>
-      <c r="R15" s="7">
-        <f>+R14/R16</f>
+      <c r="N15" s="7">
+        <f t="shared" si="14"/>
+        <v>0.16176248174683935</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="14"/>
+        <v>1.5972107384312054E-2</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="14"/>
+        <v>5.0355838103053052E-2</v>
+      </c>
+      <c r="V15" s="7">
+        <f>+V14/V16</f>
         <v>-2.3703417299122242</v>
       </c>
-      <c r="S15" s="7">
-        <f>+S14/S16</f>
+      <c r="W15" s="7">
+        <f>+W14/W16</f>
         <v>-1.6411667812411626</v>
       </c>
-      <c r="T15" s="7">
-        <f>+T14/T16</f>
-        <v>-0.95715712760097305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X15" s="7">
+        <f>+X14/X16</f>
+        <v>-0.85885102056798257</v>
+      </c>
+      <c r="Y15" s="7">
+        <f>+Y14/Y16</f>
+        <v>-5.7709232111967573E-2</v>
+      </c>
+      <c r="Z15" s="7">
+        <f>+Z14/Z16</f>
+        <v>0.31030336325769514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
@@ -1413,84 +1813,122 @@
       <c r="M16" s="5">
         <v>187.90512899999999</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="R16" s="4">
+      <c r="N16" s="5">
+        <f>+M16</f>
+        <v>187.90512899999999</v>
+      </c>
+      <c r="O16" s="5">
+        <v>212.55805000000001</v>
+      </c>
+      <c r="P16" s="5">
+        <v>217.25385600000001</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="V16" s="4">
         <v>86.932191000000003</v>
       </c>
-      <c r="S16" s="4">
+      <c r="W16" s="4">
         <v>138.985265</v>
       </c>
-      <c r="T16" s="4">
+      <c r="X16" s="4">
         <f>AVERAGE(G16:J16)</f>
         <v>155.18873100000002</v>
       </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="Y16" s="4">
+        <v>185.98410699999999</v>
+      </c>
+      <c r="Z16" s="4">
+        <f>AVERAGE(O16:R16)</f>
+        <v>214.90595300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="6">
-        <f>+G5/G3</f>
+        <f t="shared" ref="G18:R18" si="15">+G5/G3</f>
         <v>0.65514397025418458</v>
       </c>
       <c r="H18" s="6">
-        <f>+H5/H3</f>
+        <f t="shared" si="15"/>
         <v>0.63893561172642988</v>
       </c>
       <c r="I18" s="6">
-        <f>+I5/I3</f>
+        <f t="shared" si="15"/>
         <v>0.61118401557803836</v>
       </c>
       <c r="J18" s="6">
-        <f>+J5/J3</f>
+        <f t="shared" si="15"/>
         <v>0.59768448079117509</v>
       </c>
       <c r="K18" s="6">
-        <f>+K5/K3</f>
+        <f t="shared" si="15"/>
         <v>0.60567231093579277</v>
       </c>
       <c r="L18" s="6">
-        <f>+L5/L3</f>
+        <f t="shared" si="15"/>
         <v>0.60023525384152843</v>
       </c>
       <c r="M18" s="6">
-        <f>+M5/M3</f>
+        <f t="shared" si="15"/>
         <v>0.60620958273542191</v>
       </c>
       <c r="N18" s="6">
-        <f>+N5/N3</f>
+        <f t="shared" si="15"/>
+        <v>0.59975911501781209</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="15"/>
+        <v>0.60483928915849461</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="15"/>
+        <v>0.62071313245277882</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R18" s="6">
-        <f>+R5/R3</f>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="6">
+        <f>+V5/V3</f>
         <v>0.61921200946739385</v>
       </c>
-      <c r="S18" s="6">
-        <f>+S5/S3</f>
+      <c r="W18" s="6">
+        <f>+W5/W3</f>
         <v>0.63539725971764638</v>
       </c>
-      <c r="T18" s="6">
-        <f>+T5/T3</f>
-        <v>0.64170021460235904</v>
-      </c>
-      <c r="U18" s="6">
-        <f>+U5/U3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="X18" s="6">
+        <f>+X5/X3</f>
+        <v>0.62333836039208312</v>
+      </c>
+      <c r="Y18" s="6">
+        <f>+Y5/Y3</f>
+        <v>0.60273386931595596</v>
+      </c>
+      <c r="Z18" s="6">
+        <f>+Z5/Z3</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" ref="K20:L20" si="6">+K3/G3-1</f>
+        <f t="shared" ref="K20:L20" si="16">+K3/G3-1</f>
         <v>0.23695765282166459</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.3260562109686469</v>
       </c>
       <c r="M20" s="6">
@@ -1499,104 +1937,254 @@
       </c>
       <c r="N20" s="6">
         <f>+N3/J3-1</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="S20" s="10">
-        <f>+S3/R3-1</f>
+        <v>0.49616298972993622</v>
+      </c>
+      <c r="O20" s="6">
+        <f>+O3/K3-1</f>
+        <v>0.35636352444510555</v>
+      </c>
+      <c r="P20" s="6">
+        <f>+P3/L3-1</f>
+        <v>0.35377174232681852</v>
+      </c>
+      <c r="Q20" s="6">
+        <f>+Q3/M3-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R20" s="6">
+        <f>+R3/N3-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="W20" s="10">
+        <f>+W3/V3-1</f>
         <v>0.28795130307428751</v>
       </c>
-      <c r="T20" s="10">
-        <f>+T3/S3-1</f>
-        <v>0.29630889348028044</v>
-      </c>
-      <c r="U20" s="10">
-        <f>+U3/T3-1</f>
-        <v>0.28647717957152619</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+      <c r="X20" s="10">
+        <f>+X3/W3-1</f>
+        <v>0.23311521403273638</v>
+      </c>
+      <c r="Y20" s="10">
+        <f>+Y3/X3-1</f>
+        <v>0.3801595393585766</v>
+      </c>
+      <c r="Z20" s="10">
+        <f>+Z3/Y3-1</f>
+        <v>0.32310624665673737</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
+        <v>366.15699999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="3">
+        <v>235.227</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="3">
+        <v>13.348000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1.8080000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" s="3">
+        <f>8.856+28.949</f>
+        <v>37.805</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="3">
+        <v>8.8059999999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="3">
+        <f>115.18+325.992</f>
+        <v>441.17200000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="3">
+        <v>6.431</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="3">
+        <f>SUM(N23:N31)</f>
+        <v>1111.3729999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="R23" s="2">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11">
+        <v>24.666</v>
+      </c>
+      <c r="L34" s="11">
+        <f>55.776-K34</f>
+        <v>31.110000000000003</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11">
+        <v>34.798999999999999</v>
+      </c>
+      <c r="P34" s="11">
+        <f>76.848-O34</f>
+        <v>42.048999999999999</v>
+      </c>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="V34" s="2">
         <v>44.292000000000002</v>
       </c>
-      <c r="S23" s="2">
+      <c r="W34" s="2">
         <v>78.486000000000004</v>
       </c>
-      <c r="T23" s="2">
+      <c r="X34" s="2">
         <v>90.522999999999996</v>
       </c>
     </row>
-    <row r="24" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+    <row r="35" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="R24" s="2">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11">
+        <f>5.811+3.643</f>
+        <v>9.4540000000000006</v>
+      </c>
+      <c r="L35" s="11">
+        <f>12.56+8.212</f>
+        <v>20.771999999999998</v>
+      </c>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11">
+        <f>2.736+4.155</f>
+        <v>6.891</v>
+      </c>
+      <c r="P35" s="11">
+        <f>5.085+9.953</f>
+        <v>15.038</v>
+      </c>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="V35" s="2">
         <v>-9.4819999999999993</v>
       </c>
-      <c r="S24" s="2">
+      <c r="W35" s="2">
         <v>-22.231999999999999</v>
       </c>
-      <c r="T24" s="2">
+      <c r="X35" s="2">
         <v>-20.483000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="36" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="R25" s="2">
-        <f>+R23+R24</f>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11">
+        <f>+K34-K35</f>
+        <v>15.212</v>
+      </c>
+      <c r="L36" s="11">
+        <f>+L34-L35</f>
+        <v>10.338000000000005</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11">
+        <f>+O34-O35</f>
+        <v>27.908000000000001</v>
+      </c>
+      <c r="P36" s="11">
+        <f>+P34-P35</f>
+        <v>27.010999999999999</v>
+      </c>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="V36" s="2">
+        <f>+V34+V35</f>
         <v>34.81</v>
       </c>
-      <c r="S25" s="2">
-        <f>+S23+S24</f>
+      <c r="W36" s="2">
+        <f>+W34+W35</f>
         <v>56.254000000000005</v>
       </c>
-      <c r="T25" s="2">
-        <f>+T23+T24</f>
+      <c r="X36" s="2">
+        <f>+X34+X35</f>
         <v>70.039999999999992</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>